--- a/portafoglio-export.xlsx
+++ b/portafoglio-export.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C79389ED-5831-4107-B0C9-C93EA45D9487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACF3FFCF-8659-45FE-BC7C-1B18A68F25D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3B25AD05-761D-4676-94D4-6CF03DF18F4D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FD8A1465-A21F-4BC3-A7D5-CF8FD147F6FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Portafoglio sintesi" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="83">
+  <si>
+    <t>Portafoglio di sintesi</t>
+  </si>
   <si>
     <t>Titolo</t>
   </si>
@@ -112,13 +115,13 @@
     <t>AFF</t>
   </si>
   <si>
-    <t>BANCA IFIS</t>
-  </si>
-  <si>
-    <t>IT0003188064</t>
-  </si>
-  <si>
-    <t>IF.MI</t>
+    <t>BUZZI</t>
+  </si>
+  <si>
+    <t>IT0001347308</t>
+  </si>
+  <si>
+    <t>BZU.MI</t>
   </si>
   <si>
     <t>GEFRAN</t>
@@ -139,13 +142,13 @@
     <t>TRN.MI</t>
   </si>
   <si>
-    <t>MOLTIPLY GROUP</t>
-  </si>
-  <si>
-    <t>IT0004195308</t>
-  </si>
-  <si>
-    <t>MOL.MI</t>
+    <t>EXPERT.AI</t>
+  </si>
+  <si>
+    <t>IT0004496029</t>
+  </si>
+  <si>
+    <t>EXAI.MI</t>
   </si>
   <si>
     <t>BRUNELLO CUCINELLI</t>
@@ -157,6 +160,15 @@
     <t>BC.MI</t>
   </si>
   <si>
+    <t>BANCA MEDIOLANUM</t>
+  </si>
+  <si>
+    <t>IT0004776628</t>
+  </si>
+  <si>
+    <t>BMED.MI</t>
+  </si>
+  <si>
     <t>RAI WAY</t>
   </si>
   <si>
@@ -211,6 +223,15 @@
     <t>STMMI.MI</t>
   </si>
   <si>
+    <t>CEMENTIR HOLD</t>
+  </si>
+  <si>
+    <t>NL0013995087</t>
+  </si>
+  <si>
+    <t>CEM.MI</t>
+  </si>
+  <si>
     <t>MONCLER</t>
   </si>
   <si>
@@ -223,31 +244,13 @@
     <t>Azione Marginazione</t>
   </si>
   <si>
-    <t>NEXI</t>
-  </si>
-  <si>
-    <t>IT0005366767</t>
-  </si>
-  <si>
-    <t>NEXI.MI</t>
-  </si>
-  <si>
-    <t>CAMPARI</t>
-  </si>
-  <si>
-    <t>NL0015435975</t>
-  </si>
-  <si>
-    <t>CPR.MI</t>
-  </si>
-  <si>
-    <t>INWIT</t>
-  </si>
-  <si>
-    <t>IT0005090300</t>
-  </si>
-  <si>
-    <t>INW.MI</t>
+    <t>AMPLIFON</t>
+  </si>
+  <si>
+    <t>IT0004056880</t>
+  </si>
+  <si>
+    <t>AMP.MI</t>
   </si>
   <si>
     <t>A2A</t>
@@ -268,22 +271,13 @@
     <t>IG.MI</t>
   </si>
   <si>
-    <t>INTERPUMP GROUP</t>
-  </si>
-  <si>
-    <t>IT0001078911</t>
-  </si>
-  <si>
-    <t>IP.MI</t>
-  </si>
-  <si>
-    <t>AMPLIFON</t>
-  </si>
-  <si>
-    <t>IT0004056880</t>
-  </si>
-  <si>
-    <t>AMP.MI</t>
+    <t>Totale</t>
+  </si>
+  <si>
+    <t>Valore di mercato</t>
+  </si>
+  <si>
+    <t>Var</t>
   </si>
 </sst>
 </file>
@@ -295,7 +289,7 @@
     <numFmt numFmtId="183" formatCode="#,##0.0#####"/>
     <numFmt numFmtId="185" formatCode="#,##0.0###"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,6 +300,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -332,7 +334,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -369,6 +371,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -645,13 +650,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{828D6D63-C41A-48D2-BD74-252945B878AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1159038E-60E6-47FF-B3C1-E86D76A423CE}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:Q1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -673,213 +680,128 @@
     <col min="17" max="17" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="8" t="s">
+    <row r="1" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+    </row>
+    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="I3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="J3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="K3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="L3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="Q3" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="13">
-        <v>23</v>
-      </c>
-      <c r="H2" s="6">
-        <v>127.45434</v>
-      </c>
-      <c r="I2" s="12">
-        <v>1</v>
-      </c>
-      <c r="J2" s="3">
-        <v>2931.4498199999998</v>
-      </c>
-      <c r="K2" s="6">
-        <v>85.5</v>
-      </c>
-      <c r="L2" s="12">
-        <v>1</v>
-      </c>
-      <c r="M2" s="3">
-        <v>1966.5</v>
-      </c>
-      <c r="N2" s="3">
-        <v>-32.917152999999999</v>
-      </c>
-      <c r="O2" s="3">
-        <v>-964.94982000000005</v>
-      </c>
-      <c r="P2" s="3">
-        <v>-964.94982000000005</v>
-      </c>
-      <c r="Q2" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="13">
-        <v>70</v>
-      </c>
-      <c r="H3" s="6">
-        <v>42.230139999999999</v>
-      </c>
-      <c r="I3" s="12">
-        <v>1</v>
-      </c>
-      <c r="J3" s="3">
-        <v>2956.1098000000002</v>
-      </c>
-      <c r="K3" s="6">
-        <v>41.8</v>
-      </c>
-      <c r="L3" s="12">
-        <v>1</v>
-      </c>
-      <c r="M3" s="3">
-        <v>2926</v>
-      </c>
-      <c r="N3" s="3">
-        <v>-1.018562</v>
-      </c>
-      <c r="O3" s="3">
-        <v>-30.1098</v>
-      </c>
-      <c r="P3" s="3">
-        <v>-30.1098</v>
-      </c>
-      <c r="Q3" s="9">
-        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G4" s="13">
-        <v>150</v>
+        <v>23</v>
       </c>
       <c r="H4" s="6">
-        <v>21.240259999999999</v>
+        <v>127.45434</v>
       </c>
       <c r="I4" s="12">
         <v>1</v>
       </c>
       <c r="J4" s="3">
-        <v>3186.0390000000002</v>
+        <v>2931.4498199999998</v>
       </c>
       <c r="K4" s="6">
-        <v>21.2</v>
+        <v>84.6</v>
       </c>
       <c r="L4" s="12">
         <v>1</v>
       </c>
       <c r="M4" s="3">
-        <v>3180</v>
+        <v>1945.8</v>
       </c>
       <c r="N4" s="3">
-        <v>-0.18954599999999999</v>
+        <v>-33.623288000000002</v>
       </c>
       <c r="O4" s="3">
-        <v>-6.0389999999999997</v>
+        <v>-985.64981999999998</v>
       </c>
       <c r="P4" s="3">
-        <v>-6.0389999999999997</v>
+        <v>-985.64981999999998</v>
       </c>
       <c r="Q4" s="9">
         <v>0</v>
@@ -887,52 +809,52 @@
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G5" s="13">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="H5" s="6">
-        <v>9.2695000000000007</v>
+        <v>42.230139999999999</v>
       </c>
       <c r="I5" s="12">
         <v>1</v>
       </c>
       <c r="J5" s="3">
-        <v>926.95</v>
+        <v>1478.0549000000001</v>
       </c>
       <c r="K5" s="6">
-        <v>9.1</v>
+        <v>41.4</v>
       </c>
       <c r="L5" s="12">
         <v>1</v>
       </c>
       <c r="M5" s="3">
-        <v>910</v>
+        <v>1449</v>
       </c>
       <c r="N5" s="3">
-        <v>-1.828578</v>
+        <v>-1.9657519999999999</v>
       </c>
       <c r="O5" s="3">
-        <v>-16.95</v>
+        <v>-29.0549</v>
       </c>
       <c r="P5" s="3">
-        <v>-16.95</v>
+        <v>-29.0549</v>
       </c>
       <c r="Q5" s="9">
         <v>0</v>
@@ -940,52 +862,52 @@
     </row>
     <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G6" s="13">
-        <v>300</v>
+        <v>75</v>
       </c>
       <c r="H6" s="6">
-        <v>7.7226299999999997</v>
+        <v>35.868000000000002</v>
       </c>
       <c r="I6" s="12">
         <v>1</v>
       </c>
       <c r="J6" s="3">
-        <v>2316.7890000000002</v>
+        <v>2690.1</v>
       </c>
       <c r="K6" s="6">
-        <v>7.7060000000000004</v>
+        <v>36.26</v>
       </c>
       <c r="L6" s="12">
         <v>1</v>
       </c>
       <c r="M6" s="3">
-        <v>2311.8000000000002</v>
+        <v>2719.5</v>
       </c>
       <c r="N6" s="3">
-        <v>-0.215341</v>
+        <v>1.0928960000000001</v>
       </c>
       <c r="O6" s="3">
-        <v>-4.9889999999999999</v>
+        <v>29.4</v>
       </c>
       <c r="P6" s="3">
-        <v>-4.9889999999999999</v>
+        <v>29.4</v>
       </c>
       <c r="Q6" s="9">
         <v>0</v>
@@ -993,52 +915,52 @@
     </row>
     <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G7" s="13">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="H7" s="6">
-        <v>37.270719999999997</v>
+        <v>9.2695000000000007</v>
       </c>
       <c r="I7" s="12">
         <v>1</v>
       </c>
       <c r="J7" s="3">
-        <v>2049.8896</v>
+        <v>926.95</v>
       </c>
       <c r="K7" s="6">
-        <v>37.200000000000003</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="L7" s="12">
         <v>1</v>
       </c>
       <c r="M7" s="3">
-        <v>2046</v>
+        <v>912</v>
       </c>
       <c r="N7" s="3">
-        <v>-0.189747</v>
+        <v>-1.612816</v>
       </c>
       <c r="O7" s="3">
-        <v>-3.8896000000000002</v>
+        <v>-14.95</v>
       </c>
       <c r="P7" s="3">
-        <v>-3.8896000000000002</v>
+        <v>-14.95</v>
       </c>
       <c r="Q7" s="9">
         <v>0</v>
@@ -1046,52 +968,52 @@
     </row>
     <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G8" s="13">
-        <v>16</v>
+        <v>300</v>
       </c>
       <c r="H8" s="6">
-        <v>105.22280000000001</v>
+        <v>7.7226299999999997</v>
       </c>
       <c r="I8" s="12">
         <v>1</v>
       </c>
       <c r="J8" s="3">
-        <v>1683.5648000000001</v>
+        <v>2316.7890000000002</v>
       </c>
       <c r="K8" s="6">
-        <v>103.4</v>
+        <v>7.6139999999999999</v>
       </c>
       <c r="L8" s="12">
         <v>1</v>
       </c>
       <c r="M8" s="3">
-        <v>1654.4</v>
+        <v>2284.1999999999998</v>
       </c>
       <c r="N8" s="3">
-        <v>-1.732324</v>
+        <v>-1.4066449999999999</v>
       </c>
       <c r="O8" s="3">
-        <v>-29.1648</v>
+        <v>-32.588999999999999</v>
       </c>
       <c r="P8" s="3">
-        <v>-29.1648</v>
+        <v>-32.588999999999999</v>
       </c>
       <c r="Q8" s="9">
         <v>0</v>
@@ -1099,52 +1021,52 @@
     </row>
     <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G9" s="13">
-        <v>150</v>
+        <v>1346</v>
       </c>
       <c r="H9" s="6">
-        <v>5.5396599999999996</v>
+        <v>1.3124800000000001</v>
       </c>
       <c r="I9" s="12">
         <v>1</v>
       </c>
       <c r="J9" s="3">
-        <v>830.94899999999996</v>
+        <v>1766.59808</v>
       </c>
       <c r="K9" s="6">
-        <v>5.51</v>
+        <v>1.26</v>
       </c>
       <c r="L9" s="12">
         <v>1</v>
       </c>
       <c r="M9" s="3">
-        <v>826.5</v>
+        <v>1695.96</v>
       </c>
       <c r="N9" s="3">
-        <v>-0.535412</v>
+        <v>-3.9985369999999998</v>
       </c>
       <c r="O9" s="3">
-        <v>-4.4489999999999998</v>
+        <v>-70.638080000000002</v>
       </c>
       <c r="P9" s="3">
-        <v>-4.4489999999999998</v>
+        <v>-70.638080000000002</v>
       </c>
       <c r="Q9" s="9">
         <v>0</v>
@@ -1152,52 +1074,52 @@
     </row>
     <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G10" s="13">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="H10" s="6">
-        <v>14.21214</v>
+        <v>105.22280000000001</v>
       </c>
       <c r="I10" s="12">
         <v>1</v>
       </c>
       <c r="J10" s="3">
-        <v>1989.6995999999999</v>
+        <v>1683.5648000000001</v>
       </c>
       <c r="K10" s="6">
-        <v>14.24</v>
+        <v>109.3</v>
       </c>
       <c r="L10" s="12">
         <v>1</v>
       </c>
       <c r="M10" s="3">
-        <v>1993.6</v>
+        <v>1748.8</v>
       </c>
       <c r="N10" s="3">
-        <v>0.19603000000000001</v>
+        <v>3.8748260000000001</v>
       </c>
       <c r="O10" s="3">
-        <v>3.9003999999999999</v>
+        <v>65.235200000000006</v>
       </c>
       <c r="P10" s="3">
-        <v>3.9003999999999999</v>
+        <v>65.235200000000006</v>
       </c>
       <c r="Q10" s="9">
         <v>0</v>
@@ -1205,52 +1127,52 @@
     </row>
     <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G11" s="13">
-        <v>170</v>
+        <v>243</v>
       </c>
       <c r="H11" s="6">
-        <v>5.3973500000000003</v>
+        <v>12.20312</v>
       </c>
       <c r="I11" s="12">
         <v>1</v>
       </c>
       <c r="J11" s="3">
-        <v>917.54949999999997</v>
+        <v>2965.3581600000002</v>
       </c>
       <c r="K11" s="6">
-        <v>5.42</v>
+        <v>12.15</v>
       </c>
       <c r="L11" s="12">
         <v>1</v>
       </c>
       <c r="M11" s="3">
-        <v>921.4</v>
+        <v>2952.45</v>
       </c>
       <c r="N11" s="3">
-        <v>0.41965000000000002</v>
+        <v>-0.43529899999999999</v>
       </c>
       <c r="O11" s="3">
-        <v>3.8504999999999998</v>
+        <v>-12.908160000000001</v>
       </c>
       <c r="P11" s="3">
-        <v>3.8504999999999998</v>
+        <v>-12.908160000000001</v>
       </c>
       <c r="Q11" s="9">
         <v>0</v>
@@ -1258,52 +1180,52 @@
     </row>
     <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G12" s="13">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="H12" s="6">
-        <v>4.9694200000000004</v>
+        <v>5.5396599999999996</v>
       </c>
       <c r="I12" s="12">
         <v>1</v>
       </c>
       <c r="J12" s="3">
-        <v>2484.71</v>
+        <v>830.94899999999996</v>
       </c>
       <c r="K12" s="6">
-        <v>4.9400000000000004</v>
+        <v>5.27</v>
       </c>
       <c r="L12" s="12">
         <v>1</v>
       </c>
       <c r="M12" s="3">
-        <v>2470</v>
+        <v>790.5</v>
       </c>
       <c r="N12" s="3">
-        <v>-0.59202100000000002</v>
+        <v>-4.8678080000000001</v>
       </c>
       <c r="O12" s="3">
-        <v>-14.71</v>
+        <v>-40.448999999999998</v>
       </c>
       <c r="P12" s="3">
-        <v>-14.71</v>
+        <v>-40.448999999999998</v>
       </c>
       <c r="Q12" s="9">
         <v>0</v>
@@ -1311,52 +1233,52 @@
     </row>
     <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G13" s="13">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="H13" s="6">
-        <v>17.984000000000002</v>
+        <v>14.21214</v>
       </c>
       <c r="I13" s="12">
         <v>1</v>
       </c>
       <c r="J13" s="3">
-        <v>899.2</v>
+        <v>1989.6995999999999</v>
       </c>
       <c r="K13" s="6">
-        <v>18.22</v>
+        <v>14.56</v>
       </c>
       <c r="L13" s="12">
         <v>1</v>
       </c>
       <c r="M13" s="3">
-        <v>911</v>
+        <v>2038.4</v>
       </c>
       <c r="N13" s="3">
-        <v>1.3122780000000001</v>
+        <v>2.4476260000000001</v>
       </c>
       <c r="O13" s="3">
-        <v>11.8</v>
+        <v>48.700400000000002</v>
       </c>
       <c r="P13" s="3">
-        <v>11.8</v>
+        <v>48.700400000000002</v>
       </c>
       <c r="Q13" s="9">
         <v>0</v>
@@ -1364,52 +1286,52 @@
     </row>
     <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G14" s="13">
-        <v>89</v>
+        <v>170</v>
       </c>
       <c r="H14" s="6">
-        <v>43.522170000000003</v>
+        <v>5.3973500000000003</v>
       </c>
       <c r="I14" s="12">
         <v>1</v>
       </c>
       <c r="J14" s="3">
-        <v>3873.4731299999999</v>
+        <v>917.54949999999997</v>
       </c>
       <c r="K14" s="6">
-        <v>23.49</v>
+        <v>5.22</v>
       </c>
       <c r="L14" s="12">
         <v>1</v>
       </c>
       <c r="M14" s="3">
-        <v>2090.61</v>
+        <v>887.4</v>
       </c>
       <c r="N14" s="3">
-        <v>-46.027507</v>
+        <v>-3.2858719999999999</v>
       </c>
       <c r="O14" s="3">
-        <v>-1782.86313</v>
+        <v>-30.1495</v>
       </c>
       <c r="P14" s="3">
-        <v>-1782.86313</v>
+        <v>-30.1495</v>
       </c>
       <c r="Q14" s="9">
         <v>0</v>
@@ -1417,52 +1339,52 @@
     </row>
     <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G15" s="13">
-        <v>-100</v>
+        <v>500</v>
       </c>
       <c r="H15" s="6">
-        <v>49.65</v>
+        <v>4.9694200000000004</v>
       </c>
       <c r="I15" s="12">
         <v>1</v>
       </c>
       <c r="J15" s="3">
-        <v>993</v>
+        <v>2484.71</v>
       </c>
       <c r="K15" s="6">
-        <v>49.31</v>
+        <v>4.93</v>
       </c>
       <c r="L15" s="12">
         <v>1</v>
       </c>
       <c r="M15" s="3">
-        <v>4931</v>
+        <v>2465</v>
       </c>
       <c r="N15" s="3">
-        <v>0.68479400000000001</v>
+        <v>-0.79325199999999996</v>
       </c>
       <c r="O15" s="3">
-        <v>34</v>
+        <v>-19.71</v>
       </c>
       <c r="P15" s="3">
-        <v>34</v>
+        <v>-19.71</v>
       </c>
       <c r="Q15" s="9">
         <v>0</v>
@@ -1470,52 +1392,52 @@
     </row>
     <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G16" s="13">
-        <v>-550</v>
+        <v>50</v>
       </c>
       <c r="H16" s="6">
-        <v>5.3920000000000003</v>
+        <v>17.984000000000002</v>
       </c>
       <c r="I16" s="12">
         <v>1</v>
       </c>
       <c r="J16" s="3">
-        <v>593.12</v>
+        <v>899.2</v>
       </c>
       <c r="K16" s="6">
-        <v>5.3819999999999997</v>
+        <v>18.885000000000002</v>
       </c>
       <c r="L16" s="12">
         <v>1</v>
       </c>
       <c r="M16" s="3">
-        <v>2960.1</v>
+        <v>944.25</v>
       </c>
       <c r="N16" s="3">
-        <v>0.18546000000000001</v>
+        <v>5.0100090000000002</v>
       </c>
       <c r="O16" s="3">
-        <v>5.5</v>
+        <v>45.05</v>
       </c>
       <c r="P16" s="3">
-        <v>5.5</v>
+        <v>45.05</v>
       </c>
       <c r="Q16" s="9">
         <v>0</v>
@@ -1523,52 +1445,52 @@
     </row>
     <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G17" s="13">
-        <v>-500</v>
+        <v>89</v>
       </c>
       <c r="H17" s="6">
-        <v>6.09</v>
+        <v>43.522170000000003</v>
       </c>
       <c r="I17" s="12">
         <v>1</v>
       </c>
       <c r="J17" s="3">
-        <v>304.5</v>
+        <v>3873.4731299999999</v>
       </c>
       <c r="K17" s="6">
-        <v>5.782</v>
+        <v>24.04</v>
       </c>
       <c r="L17" s="12">
         <v>1</v>
       </c>
       <c r="M17" s="3">
-        <v>2891</v>
+        <v>2139.56</v>
       </c>
       <c r="N17" s="3">
-        <v>5.0574709999999996</v>
+        <v>-44.763784000000001</v>
       </c>
       <c r="O17" s="3">
-        <v>154</v>
+        <v>-1733.9131299999999</v>
       </c>
       <c r="P17" s="3">
-        <v>154</v>
+        <v>-1733.9131299999999</v>
       </c>
       <c r="Q17" s="9">
         <v>0</v>
@@ -1576,52 +1498,52 @@
     </row>
     <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G18" s="13">
-        <v>-350</v>
+        <v>213</v>
       </c>
       <c r="H18" s="6">
-        <v>9.92</v>
+        <v>10.84056</v>
       </c>
       <c r="I18" s="12">
         <v>1</v>
       </c>
       <c r="J18" s="3">
-        <v>520.79999999999995</v>
+        <v>2309.03928</v>
       </c>
       <c r="K18" s="6">
-        <v>9.91</v>
+        <v>10.54</v>
       </c>
       <c r="L18" s="12">
         <v>1</v>
       </c>
       <c r="M18" s="3">
-        <v>3468.5</v>
+        <v>2245.02</v>
       </c>
       <c r="N18" s="3">
-        <v>0.10080600000000001</v>
+        <v>-2.7725499999999998</v>
       </c>
       <c r="O18" s="3">
-        <v>3.5</v>
+        <v>-64.019279999999995</v>
       </c>
       <c r="P18" s="3">
-        <v>3.5</v>
+        <v>-64.019279999999995</v>
       </c>
       <c r="Q18" s="9">
         <v>0</v>
@@ -1629,52 +1551,52 @@
     </row>
     <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G19" s="13">
-        <v>-2000</v>
+        <v>-62</v>
       </c>
       <c r="H19" s="6">
-        <v>2.1659999999999999</v>
+        <v>49.65</v>
       </c>
       <c r="I19" s="12">
         <v>1</v>
       </c>
       <c r="J19" s="3">
-        <v>1083</v>
+        <v>615.66</v>
       </c>
       <c r="K19" s="6">
-        <v>2.1739999999999999</v>
+        <v>53.1</v>
       </c>
       <c r="L19" s="12">
         <v>1</v>
       </c>
       <c r="M19" s="3">
-        <v>4348</v>
+        <v>3292.2</v>
       </c>
       <c r="N19" s="3">
-        <v>-0.36934400000000001</v>
+        <v>-6.9486400000000001</v>
       </c>
       <c r="O19" s="3">
-        <v>-16</v>
+        <v>-213.9</v>
       </c>
       <c r="P19" s="3">
-        <v>-16</v>
+        <v>-213.9</v>
       </c>
       <c r="Q19" s="9">
         <v>0</v>
@@ -1682,52 +1604,52 @@
     </row>
     <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G20" s="13">
-        <v>-350</v>
+        <v>-216</v>
       </c>
       <c r="H20" s="6">
-        <v>5.41</v>
+        <v>25.28</v>
       </c>
       <c r="I20" s="12">
         <v>1</v>
       </c>
       <c r="J20" s="3">
-        <v>946.75</v>
+        <v>546.04999999999995</v>
       </c>
       <c r="K20" s="6">
-        <v>5.43</v>
+        <v>25.2</v>
       </c>
       <c r="L20" s="12">
         <v>1</v>
       </c>
       <c r="M20" s="3">
-        <v>1900.5</v>
+        <v>5443.2</v>
       </c>
       <c r="N20" s="3">
-        <v>-0.36968600000000001</v>
+        <v>0.31645600000000002</v>
       </c>
       <c r="O20" s="3">
-        <v>-7</v>
+        <v>17.28</v>
       </c>
       <c r="P20" s="3">
-        <v>-7</v>
+        <v>17.28</v>
       </c>
       <c r="Q20" s="9">
         <v>0</v>
@@ -1735,52 +1657,52 @@
     </row>
     <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G21" s="13">
-        <v>100</v>
+        <v>-2000</v>
       </c>
       <c r="H21" s="6">
-        <v>18.32</v>
+        <v>2.1659999999999999</v>
       </c>
       <c r="I21" s="12">
         <v>1</v>
       </c>
       <c r="J21" s="3">
-        <v>916</v>
+        <v>1083</v>
       </c>
       <c r="K21" s="6">
-        <v>18.22</v>
+        <v>2.181</v>
       </c>
       <c r="L21" s="12">
         <v>1</v>
       </c>
       <c r="M21" s="3">
-        <v>1822</v>
+        <v>4362</v>
       </c>
       <c r="N21" s="3">
-        <v>-0.545852</v>
+        <v>-0.69252100000000005</v>
       </c>
       <c r="O21" s="3">
-        <v>-10</v>
+        <v>-30</v>
       </c>
       <c r="P21" s="3">
-        <v>-10</v>
+        <v>-30</v>
       </c>
       <c r="Q21" s="9">
         <v>0</v>
@@ -1788,52 +1710,52 @@
     </row>
     <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>81</v>
-      </c>
       <c r="D22" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G22" s="13">
-        <v>-40</v>
+        <v>-350</v>
       </c>
       <c r="H22" s="6">
-        <v>45.24</v>
+        <v>5.41</v>
       </c>
       <c r="I22" s="12">
         <v>1</v>
       </c>
       <c r="J22" s="3">
-        <v>1085.76</v>
+        <v>946.75</v>
       </c>
       <c r="K22" s="6">
-        <v>42.48</v>
+        <v>5.4050000000000002</v>
       </c>
       <c r="L22" s="12">
         <v>1</v>
       </c>
       <c r="M22" s="3">
-        <v>1699.2</v>
+        <v>1891.75</v>
       </c>
       <c r="N22" s="3">
-        <v>6.1007959999999999</v>
+        <v>9.2421000000000003E-2</v>
       </c>
       <c r="O22" s="3">
-        <v>110.4</v>
+        <v>1.75</v>
       </c>
       <c r="P22" s="3">
-        <v>110.4</v>
+        <v>1.75</v>
       </c>
       <c r="Q22" s="9">
         <v>0</v>
@@ -1841,58 +1763,95 @@
     </row>
     <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="13">
+        <v>100</v>
+      </c>
+      <c r="H23" s="6">
+        <v>18.32</v>
+      </c>
+      <c r="I23" s="12">
+        <v>1</v>
+      </c>
+      <c r="J23" s="3">
+        <v>916</v>
+      </c>
+      <c r="K23" s="6">
+        <v>18.885000000000002</v>
+      </c>
+      <c r="L23" s="12">
+        <v>1</v>
+      </c>
+      <c r="M23" s="3">
+        <v>1888.5</v>
+      </c>
+      <c r="N23" s="3">
+        <v>3.0840610000000002</v>
+      </c>
+      <c r="O23" s="3">
+        <v>56.5</v>
+      </c>
+      <c r="P23" s="3">
+        <v>56.5</v>
+      </c>
+      <c r="Q23" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O25" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" s="13">
-        <v>-200</v>
-      </c>
-      <c r="H23" s="6">
-        <v>24.76</v>
-      </c>
-      <c r="I23" s="12">
-        <v>1</v>
-      </c>
-      <c r="J23" s="3">
-        <v>990.4</v>
-      </c>
-      <c r="K23" s="6">
-        <v>24.36</v>
-      </c>
-      <c r="L23" s="12">
-        <v>1</v>
-      </c>
-      <c r="M23" s="3">
-        <v>4872</v>
-      </c>
-      <c r="N23" s="3">
-        <v>1.6155090000000001</v>
-      </c>
-      <c r="O23" s="3">
-        <v>80</v>
-      </c>
-      <c r="P23" s="3">
-        <v>80</v>
-      </c>
-      <c r="Q23" s="9">
-        <v>0</v>
+    </row>
+    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L26" s="3">
+        <v>34170.945269999997</v>
+      </c>
+      <c r="M26" s="3">
+        <v>31156.93</v>
+      </c>
+      <c r="N26" s="3">
+        <v>-6.4595589999999996</v>
+      </c>
+      <c r="O26" s="3">
+        <v>-3014.0152699999999</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:Q1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
